--- a/dwg/roboCoolerPwrReq.xlsx
+++ b/dwg/roboCoolerPwrReq.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\delibero.michael\personal\roboCooler\dwg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item</t>
   </si>
@@ -33,38 +38,30 @@
     <t>Fan</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Cap Sense</t>
   </si>
   <si>
-    <t>Hall Effect</t>
-  </si>
-  <si>
     <t>LEDs</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>Water Pump</t>
   </si>
   <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>3.3V</t>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,11 +161,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,15 +207,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -241,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,19 +528,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
@@ -503,17 +549,19 @@
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
@@ -522,17 +570,20 @@
       <c r="J1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="14">
+        <f>B2*C2</f>
+        <v>24</v>
+      </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -541,17 +592,20 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.4</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <v>4.8000000000000007</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -560,15 +614,20 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -577,151 +636,163 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="12">
+        <f>0.4*10^-3</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="16">
+        <f>SUM(D2:D7)</f>
+        <v>51.101320000000001</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="9:10">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="9:10">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="9:10">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="9:10">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="9:10">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="9:10">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="9:10">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="9:10">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="9:10">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="9:10">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="9:10">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="9:10">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="9:10">
+    <row r="29" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="9:10">
+    <row r="30" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="9:10">
+    <row r="31" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="9:10">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="9:10">
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="9:10">
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,24 +801,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dwg/roboCoolerPwrReq.xlsx
+++ b/dwg/roboCoolerPwrReq.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.E+00"/>
@@ -318,6 +318,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,7 +566,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
